--- a/results/results_13.02.2022.xlsx
+++ b/results/results_13.02.2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F916E9-10D9-421B-B5A0-7E302B8B3373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDC59D-8F48-4A36-8354-2C014B6ED1D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_mean results" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="44">
   <si>
     <t>PR_U2_W</t>
   </si>
@@ -135,12 +135,57 @@
   <si>
     <t>co-changing pairs without filtering</t>
   </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>PR\_U2\_W</t>
+  </si>
+  <si>
+    <t>PR\_U</t>
+  </si>
+  <si>
+    <t>CON\_T\_W</t>
+  </si>
+  <si>
+    <t>CON\_T</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>H&amp;S-ant</t>
+  </si>
+  <si>
+    <t>H&amp;S-catalina</t>
+  </si>
+  <si>
+    <t>H&amp;S hibernate</t>
+  </si>
+  <si>
+    <t>H - ant</t>
+  </si>
+  <si>
+    <t>H - catalina</t>
+  </si>
+  <si>
+    <t>H - hibernate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +201,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +253,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -239,10 +304,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,8 +333,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8159,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4722C04-9C38-4BC7-8C1A-A00F5132A1D2}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J44" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9702,8 +9775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BD7658-17A8-482B-8537-27BDBC7D971C}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11380,13 +11453,3041 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23298C6-910C-4F44-97D8-518EAAC35C79}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:X64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="U67" sqref="U67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="17">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17">
+        <v>30</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="17">
+        <v>50</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="17">
+        <v>60</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="17">
+        <v>70</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>80</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="17">
+        <v>90</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="17">
+        <v>100</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="17">
+        <v>30</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="17">
+        <v>40</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="17">
+        <v>50</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="17">
+        <v>60</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="17">
+        <v>70</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>80</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="17">
+        <v>90</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="17">
+        <v>100</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.87684824900000002</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.87957198400000003</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.88307393000000001</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.88754863799999995</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.88404669300000005</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.880350195</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.90097276299999995</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.92354085600000002</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.90038910500000002</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0.89105058400000003</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="19">
+        <v>0.92879377399999996</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.95466926100000005</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.93190661500000005</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.93638132299999999</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.93560311299999999</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.87996108900000003</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.88404669300000005</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.88657587500000001</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.88949416299999995</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0.88793774299999995</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0.88988326799999995</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0.85525291800000003</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.93268482500000005</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.93677042799999999</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.93638132299999999</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.93929961100000003</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.94027237399999997</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.93910505799999999</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.94085603100000004</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.94260700399999997</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0.94163424100000004</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0.93988326799999999</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="19">
+        <v>0.93346303500000005</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.84066147899999999</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.83871595300000001</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.83618676999999997</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.83774319100000005</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.83482490300000001</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.84902723700000005</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.85894941599999997</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0.87159533099999997</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0.87023346300000004</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0.87412451400000002</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="19">
+        <v>0.93385214000000005</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.92042801600000002</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.91906614799999997</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.92120622600000002</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.92315175100000002</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.92334630399999995</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.93249027200000001</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.93443579799999998</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.93949416299999999</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0.93735408600000003</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0.93696498100000003</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0.94182879399999997</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="17">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="17">
+        <v>20</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="17">
+        <v>30</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="17">
+        <v>40</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="17">
+        <v>50</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="17">
+        <v>60</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="17">
+        <v>70</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>80</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="17">
+        <v>90</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="17">
+        <v>100</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.86175115199999996</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.88267386999999997</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.89761110200000005</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.90116001899999998</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.90725144300000005</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.90899941699999998</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.91042957800000002</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0.91577943699999997</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0.91848085199999996</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0.91795116300000001</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="19">
+        <v>0.92340696</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.87933682899999999</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.88489856499999997</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.88781185399999996</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.88150855400000006</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.86932570600000003</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.86927273699999996</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.86281052999999996</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0.86259865499999999</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0.86286349900000003</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0.86302240600000002</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0.92669753099999996</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.92409555600000004</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.92992213599999995</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.93076963800000001</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.93193495400000004</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.93193495400000004</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0.93204089199999995</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.93219979900000005</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.93214682999999998</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0.93219979900000005</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0.93209386100000002</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="19">
+        <v>0.93219979900000005</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.86794851399999995</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.88775888599999997</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.90116001899999998</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.90921129300000003</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.91350177399999999</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.91699772199999996</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0.91832194499999997</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0.92319508400000005</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0.92515493400000004</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="14">
+        <v>0.92541977900000005</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="19">
+        <v>0.925949468</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.92510196499999997</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.933788866</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.93664918699999999</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.93781450300000002</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.93765559600000004</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0.93776153399999995</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.93781450300000002</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0.93813231600000002</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0.93818528499999998</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0.93818528499999998</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="19">
+        <v>0.93903278800000001</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="17">
+        <v>10</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="17">
+        <v>20</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="17">
+        <v>30</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="17">
+        <v>40</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="17">
+        <v>50</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="17">
+        <v>60</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="17">
+        <v>70</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>80</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="17">
+        <v>90</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="17">
+        <v>100</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.90251835599999997</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.90873373700000004</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.91634999399999995</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.92813667399999999</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.92981128400000002</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0.93164691499999996</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.94646077500000003</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0.94663789799999998</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0.94700824400000005</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0.94876336500000003</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0.95823135400000004</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.95567113199999998</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.95935849500000003</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.961210228</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.96175769700000002</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.96217634900000004</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0.96151616600000001</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.95335244100000005</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0.95340074699999999</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0.95328803299999998</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0.95356176699999995</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0.94943964999999997</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.936976684</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.94098608800000005</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.94317596299999995</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0.94739469300000001</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.94774893699999996</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0.94776503899999998</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0.949971016</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0.95000322000000004</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0.95000322000000004</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0.950099833</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="15">
+        <v>0.950598995</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.86359976800000005</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.87189231</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.87894499500000001</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0.89619026099999999</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0.89781656600000004</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0.89978101200000005</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0.92936042799999996</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0.93019773299999997</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0.93066469100000004</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0.93398170800000002</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0.94436751299999999</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.91997294900000004</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.92733157300000002</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.93216217999999995</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0.93950470200000002</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0.93982674200000005</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.94018098699999997</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="14">
+        <v>0.94488277700000001</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0.94475396099999998</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="14">
+        <v>0.94468955300000002</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="14">
+        <v>0.94491498100000004</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0.94629975499999996</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="17">
+        <v>10</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="17">
+        <v>20</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="17">
+        <v>30</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="17">
+        <v>40</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="17">
+        <v>50</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="17">
+        <v>60</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="17">
+        <v>70</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>80</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="17">
+        <v>90</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="17">
+        <v>100</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>0.678988327</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>0.69474708200000002</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>0.73832684800000004</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>0.798638132</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>0.82159533100000004</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>0.88287937699999997</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41">
+        <v>0.89027237400000003</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>0.90097276299999995</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41">
+        <v>0.846498054</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41">
+        <v>0.86225680900000001</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0.92879377399999996</v>
+      </c>
+      <c r="X41" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0.86789883300000004</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>0.77568093400000004</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>0.76673151799999995</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>0.82548638100000005</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>0.82198443600000004</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>0.85019455300000002</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <v>0.83424124499999996</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42">
+        <v>0.86322957199999995</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42">
+        <v>0.84357976700000004</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42">
+        <v>0.85972762599999997</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="19">
+        <v>0.85525291800000003</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>0.80058365799999998</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>0.79182879399999995</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>0.75700389099999998</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>0.80603112799999999</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>0.82159533100000004</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>0.85408560300000003</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>0.85603112800000003</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43">
+        <v>0.86731517499999999</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43">
+        <v>0.84785992200000004</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43">
+        <v>0.85972762599999997</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" s="19">
+        <v>0.93346303500000005</v>
+      </c>
+      <c r="X43" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>0.81906614799999999</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0.82490272399999998</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>0.81809338499999995</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>0.81712062299999999</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>0.81303501899999997</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>0.82821011700000002</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <v>0.84260700399999999</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>0.86089494200000005</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44">
+        <v>0.84474708200000004</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44">
+        <v>0.85447470800000003</v>
+      </c>
+      <c r="V44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="19">
+        <v>0.93385214000000005</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0.85583657599999996</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>0.83638132300000001</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>0.81906614799999999</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>0.80291828799999998</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45">
+        <v>0.80077821000000005</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>0.81556420200000002</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45">
+        <v>0.83093385200000003</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <v>0.85466926099999996</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45">
+        <v>0.83988326800000002</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45">
+        <v>0.85116731499999998</v>
+      </c>
+      <c r="V45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0.94182879399999997</v>
+      </c>
+      <c r="X45" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="17">
+        <v>10</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="17">
+        <v>20</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="17">
+        <v>30</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="17">
+        <v>40</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="17">
+        <v>50</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="17">
+        <v>60</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="17">
+        <v>70</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>80</v>
+      </c>
+      <c r="R49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="17">
+        <v>90</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="17">
+        <v>100</v>
+      </c>
+      <c r="V49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0.77530589500000002</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0.81021240500000002</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>0.833995445</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>0.827533238</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>0.81879336800000002</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>0.81508554499999997</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>0.80459770100000005</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50">
+        <v>0.81640976700000001</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50">
+        <v>0.81974680899999997</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50">
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="V50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0.92340696</v>
+      </c>
+      <c r="X50" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>0.81307272600000002</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>0.81312569499999998</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>0.83637904600000001</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>0.831135124</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>0.82038243600000005</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>0.81402616699999997</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51">
+        <v>0.80359129200000001</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51">
+        <v>0.81635679900000002</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51">
+        <v>0.81969384000000001</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51">
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0.92669753099999996</v>
+      </c>
+      <c r="X51" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>0.77223369900000005</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>0.81487366900000002</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>0.83463107199999997</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>0.830711372</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>0.82006462199999997</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52">
+        <v>0.81376132199999995</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52">
+        <v>0.804068012</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52">
+        <v>0.81646273599999997</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52">
+        <v>0.81948196399999995</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52">
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="V52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0.93219979900000005</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>0.80454473199999998</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>0.82340166299999995</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>0.84236453200000005</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>0.83463107199999997</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53">
+        <v>0.82218337799999996</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>0.81471476200000004</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53">
+        <v>0.80544520399999997</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53">
+        <v>0.81656867399999999</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53">
+        <v>0.81964087100000005</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53">
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="V53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0.925949468</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>0.78717093100000002</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0.81217225500000001</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>0.83500185400000004</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>0.83230044000000003</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>0.82112399999999997</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>0.81354944600000001</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54">
+        <v>0.80438582599999997</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54">
+        <v>0.81656867399999999</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54">
+        <v>0.81964087100000005</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54">
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="V54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W54" s="4">
+        <v>0.93903278800000001</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="17">
+        <v>10</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="17">
+        <v>20</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="17">
+        <v>30</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="17">
+        <v>40</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="17">
+        <v>50</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="17">
+        <v>60</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" s="17">
+        <v>70</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>80</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="17">
+        <v>90</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="17">
+        <v>100</v>
+      </c>
+      <c r="V59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>0.72100025763237996</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>0.733463222980828</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>0.74338206878786195</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>0.70029305680797604</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>0.69974558804590004</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>0.70349735926836598</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60">
+        <v>0.741272703851657</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60">
+        <v>0.74188458070339003</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60">
+        <v>0.743800721370658</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60">
+        <v>0.75078899909834296</v>
+      </c>
+      <c r="V60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W60" s="4">
+        <v>0.95823135400000004</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>0.73533105758085604</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0.74732706427929996</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>0.75602215638286796</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>0.70399652196320095</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>0.70159732062351199</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>0.70586435656322699</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O61">
+        <v>0.74549143372412996</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61">
+        <v>0.74484735282756898</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61">
+        <v>0.74613551462069105</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61">
+        <v>0.751706814375942</v>
+      </c>
+      <c r="V61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W61" s="4">
+        <v>0.94943964999999997</v>
+      </c>
+      <c r="X61" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>0.73824552363779306</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>0.74029048048437296</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>0.74877624629655903</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62">
+        <v>0.69918201726140905</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>0.70056679118901499</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62">
+        <v>0.70375499162699096</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62">
+        <v>0.74357529305686199</v>
+      </c>
+      <c r="P62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62">
+        <v>0.74330155867582304</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62">
+        <v>0.74473463867067102</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62">
+        <v>0.75188393662249597</v>
+      </c>
+      <c r="V62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W62" s="4">
+        <v>0.950598995</v>
+      </c>
+      <c r="X62" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>0.73003349220664404</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>0.73937266520677403</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>0.74729486023446901</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>0.701275280175232</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0.70219309545283104</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>0.70591266263046903</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63">
+        <v>0.74615161664310403</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63">
+        <v>0.747198248100016</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63">
+        <v>0.74797114517588903</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63">
+        <v>0.75373566920010804</v>
+      </c>
+      <c r="V63" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W63" s="4">
+        <v>0.94436751299999999</v>
+      </c>
+      <c r="X63" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>0.73959809352057104</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>0.742947314182686</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>0.75049916269485895</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>0.70042187298728897</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>0.70001932242693798</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64">
+        <v>0.70393211387354504</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64">
+        <v>0.74550753574654405</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64">
+        <v>0.746409249001729</v>
+      </c>
+      <c r="R64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64">
+        <v>0.74706943192070396</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64">
+        <v>0.75322040448285899</v>
+      </c>
+      <c r="V64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W64" s="4">
+        <v>0.94629975499999996</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X13" r:id="rId1" xr:uid="{5A7CA082-A19D-4BF9-B2C4-E71FEC3FDB0B}"/>
+    <hyperlink ref="X14" r:id="rId2" xr:uid="{834D43E6-E787-4436-A4FE-0D44C1460638}"/>
+    <hyperlink ref="X15" r:id="rId3" xr:uid="{B7D0E31D-451F-4817-B316-45148897402A}"/>
+    <hyperlink ref="X16" r:id="rId4" xr:uid="{5ADD5EF6-0BBD-4EA6-A245-B7E0B47C45A0}"/>
+    <hyperlink ref="X17" r:id="rId5" xr:uid="{ADBDC2BB-CC54-4C93-831A-90B8006B30EC}"/>
+    <hyperlink ref="X23" r:id="rId6" xr:uid="{DC26D0E9-92E7-4F71-AFB7-78A1961618BD}"/>
+    <hyperlink ref="X24" r:id="rId7" xr:uid="{EB15D655-5515-40CA-B087-F41C7EFBFAA8}"/>
+    <hyperlink ref="X25" r:id="rId8" xr:uid="{7326DDD2-9300-4B6F-94BB-CD102C600732}"/>
+    <hyperlink ref="X26" r:id="rId9" xr:uid="{2651F378-F3D8-41B1-B081-3F4255397642}"/>
+    <hyperlink ref="X27" r:id="rId10" xr:uid="{8A9CE612-9E26-4D69-9B0B-6D478E567079}"/>
+    <hyperlink ref="X4" r:id="rId11" xr:uid="{C1B6A6A5-CEA1-48AC-9345-4A272D18C83D}"/>
+    <hyperlink ref="X5" r:id="rId12" xr:uid="{5614D3EC-28E9-4EC6-B345-28D9FDA9DE5F}"/>
+    <hyperlink ref="X6" r:id="rId13" xr:uid="{427F6D17-BDC0-479C-BF6A-A0B88ABE284A}"/>
+    <hyperlink ref="X7" r:id="rId14" xr:uid="{2AB2391F-0A0A-4871-89B6-7EB620CE6785}"/>
+    <hyperlink ref="X8" r:id="rId15" xr:uid="{09DA7CC3-5FC8-4E93-BFE4-316253F89B2B}"/>
+    <hyperlink ref="X31" r:id="rId16" xr:uid="{742556D7-BC2D-47C9-B847-4054854F2672}"/>
+    <hyperlink ref="X32" r:id="rId17" xr:uid="{EEBFB0F3-2ACC-4F2B-8E81-25D27B500FCB}"/>
+    <hyperlink ref="X33" r:id="rId18" xr:uid="{C20BD7EE-9477-4FD9-A4B2-60C22A02F243}"/>
+    <hyperlink ref="X34" r:id="rId19" xr:uid="{C8CC08F1-3912-4C2F-AACF-647E17FBA342}"/>
+    <hyperlink ref="X35" r:id="rId20" xr:uid="{832AA59B-A79D-48C7-B4C3-30B134136F72}"/>
+    <hyperlink ref="X36" r:id="rId21" xr:uid="{B48A6417-F335-46C5-9DB2-C5C6A37C0325}"/>
+    <hyperlink ref="X22" r:id="rId22" xr:uid="{20FCE9A0-A3BC-4527-A749-53CF7495D296}"/>
+    <hyperlink ref="X12" r:id="rId23" xr:uid="{5D0A48F4-B57D-4E0F-88FC-E7919E82BA97}"/>
+    <hyperlink ref="X3" r:id="rId24" xr:uid="{BDB9409D-DE1C-4419-8464-72DF62A82C7B}"/>
+    <hyperlink ref="X41" r:id="rId25" xr:uid="{85F26F86-5E66-4164-AA7A-CD445704B6D4}"/>
+    <hyperlink ref="X42" r:id="rId26" xr:uid="{77C8D472-21A8-4FB8-B1B2-2CDBFC8F69AC}"/>
+    <hyperlink ref="X43" r:id="rId27" xr:uid="{976E09ED-2E15-4E48-96FF-61C7EE0A08EA}"/>
+    <hyperlink ref="X44" r:id="rId28" xr:uid="{C6ECEAF6-632E-415A-9808-32F7BC9A1AA2}"/>
+    <hyperlink ref="X45" r:id="rId29" xr:uid="{94D8EFE2-88BB-478F-A67B-68968561FF43}"/>
+    <hyperlink ref="X40" r:id="rId30" xr:uid="{24BF2EE0-6FA0-492E-9C15-E9C66859A7D2}"/>
+    <hyperlink ref="X50" r:id="rId31" xr:uid="{4FEBC32F-98BA-48D8-95E4-ED377C09F7C1}"/>
+    <hyperlink ref="X51" r:id="rId32" xr:uid="{CF2E2C94-E0C6-4629-B40F-6080D944E032}"/>
+    <hyperlink ref="X52" r:id="rId33" xr:uid="{564BB130-7C05-42C5-A270-C0336F99958A}"/>
+    <hyperlink ref="X53" r:id="rId34" xr:uid="{63BFD41C-EA39-4D26-8F33-436D5F4F29EC}"/>
+    <hyperlink ref="X54" r:id="rId35" xr:uid="{F4EC04F7-D516-4C4C-AE08-A811E38CE867}"/>
+    <hyperlink ref="X49" r:id="rId36" xr:uid="{D8A58D31-D76A-4BFF-8643-F7EAEC69701B}"/>
+    <hyperlink ref="X60" r:id="rId37" xr:uid="{57B6E15D-8EE1-4DD1-8E83-DBF55469D8D6}"/>
+    <hyperlink ref="X61" r:id="rId38" xr:uid="{6644CEF3-30EA-41C4-BFBA-42B2989D61B7}"/>
+    <hyperlink ref="X62" r:id="rId39" xr:uid="{A1B382DA-3F5F-4722-AFA9-A4891E41A0AA}"/>
+    <hyperlink ref="X63" r:id="rId40" xr:uid="{58CBC59E-BC9E-42C1-889F-32F56B91050C}"/>
+    <hyperlink ref="X64" r:id="rId41" xr:uid="{F48E9380-749B-44E0-84FE-DBE287208A75}"/>
+    <hyperlink ref="X59" r:id="rId42" xr:uid="{8F4F9CC5-6EB8-4164-8EA5-8C08FEFC0328}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/results/results_13.02.2022.xlsx
+++ b/results/results_13.02.2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F92E1-D97F-4699-83E4-6014DFED71B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0DA3E-6F43-4E37-8E5E-3F70C4878C6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_mean results" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="120">
   <si>
     <t>PR_U2_W</t>
   </si>
@@ -389,6 +389,24 @@
   <si>
     <t>org.apache.tools.ant.Project ,org.apache.tools.ant.Target,org.apache.tools.ant.UnknownElement,org.apache.tools.ant.RuntimeConfigurable,org.apache.tools.ant.Task,org.apache.tools.ant.IntrospectionHelper,org.apache.tools.ant.ProjectHelper,org.apache.tools.ant.Main,org.apache.tools.ant.TaskContainer,org.apache.tools.ant.helper.ProjectHelper2$ElementHandler</t>
   </si>
+  <si>
+    <t>max number of updates with other entity</t>
+  </si>
+  <si>
+    <t>key class name</t>
+  </si>
+  <si>
+    <t>max occurrence with another entity</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>catalina</t>
+  </si>
 </sst>
 </file>
 
@@ -557,6 +575,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -577,13 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2028,57 +2046,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4839,10 +4857,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23298C6-910C-4F44-97D8-518EAAC35C79}">
-  <dimension ref="A3:X79"/>
+  <dimension ref="A3:X135"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:V79"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8380,6 +8398,700 @@
         <v>14.85132237312366</v>
       </c>
       <c r="V79" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>40</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>13</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>39</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>43</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>38</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>16</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>67</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>56</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>21</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>47</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>16</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>21</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>14</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>52</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95">
+        <v>43</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>39</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>88</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>16</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114">
+        <v>14</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="10">
+        <v>0.79138325745915938</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="10">
+        <v>0.91622743965999998</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="10">
+        <v>0.7308388011994551</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="10">
+        <v>0.89326882637865124</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0.82632684826000014</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="10">
+        <v>0.90346692610000001</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="10">
+        <v>0.74138910505836519</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="10">
+        <v>0.87343968871595312</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="10">
+        <v>0.81617246681999989</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="10">
+        <v>0.91009269553999994</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="10">
+        <v>0.7523449334600002</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="10">
+        <f>AVERAGE('Confidence classic x 100'!P20:Y24)</f>
+        <v>0.87765559624000067</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="10">
+        <v>0.73165045729747813</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="10">
+        <v>0.93512269733999975</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0.69878236508000002</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="10">
+        <v>0.92871119417999981</v>
+      </c>
+      <c r="F135" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8435,9 +9147,30 @@
     <hyperlink ref="V78" r:id="rId48" xr:uid="{E7116FF2-5F38-4FA6-B607-7022B35B57CD}"/>
     <hyperlink ref="V79" r:id="rId49" xr:uid="{3E071975-B70D-4372-88BD-15FB50476206}"/>
     <hyperlink ref="V76" r:id="rId50" xr:uid="{248E7632-71CD-4A2B-84F1-6845229C7676}"/>
+    <hyperlink ref="F87" r:id="rId51" xr:uid="{A4FC0B29-D2AA-41E4-8021-AD208DC1C5BA}"/>
+    <hyperlink ref="F88" r:id="rId52" xr:uid="{2A337003-6E39-4010-B653-55A219FBD41B}"/>
+    <hyperlink ref="F89" r:id="rId53" xr:uid="{58C9C20E-8F4A-4B7D-8DF1-E0A6DCA850F6}"/>
+    <hyperlink ref="F86" r:id="rId54" xr:uid="{90D7A746-D47D-4060-B95E-AEAEF2AC0C06}"/>
+    <hyperlink ref="F90:F96" r:id="rId55" display="\\" xr:uid="{C04DE2AF-9D60-4374-85FD-6F399FB52350}"/>
+    <hyperlink ref="F103" r:id="rId56" xr:uid="{BA92C04C-E039-4814-BE8B-3CD0118D3157}"/>
+    <hyperlink ref="F104" r:id="rId57" xr:uid="{74B93019-33DD-49BF-ADDB-14A2E10DCAEE}"/>
+    <hyperlink ref="F105" r:id="rId58" xr:uid="{C6471BFA-5101-40F0-83E7-DED24C2C3BF1}"/>
+    <hyperlink ref="F102" r:id="rId59" xr:uid="{F6DDB484-2B9D-4E9F-8E81-DCF413DEB50C}"/>
+    <hyperlink ref="F106:F112" r:id="rId60" display="\\" xr:uid="{C5992F17-2C73-495C-9D00-AB27FBB37B5F}"/>
+    <hyperlink ref="F114" r:id="rId61" xr:uid="{CB8F9FAF-B430-4D45-A0B9-DE768D1243CC}"/>
+    <hyperlink ref="F115" r:id="rId62" xr:uid="{24E9F5C0-0EAE-48DC-9E5B-9D4DA6865A80}"/>
+    <hyperlink ref="F113" r:id="rId63" xr:uid="{22A9C42B-FE06-4427-98BE-E2A33F69CB10}"/>
+    <hyperlink ref="F122" r:id="rId64" xr:uid="{DCD4144A-E7A5-4110-B472-4BDB1556C119}"/>
+    <hyperlink ref="F123" r:id="rId65" xr:uid="{AC7F1FAF-7894-43C7-A871-358AACE6E2E9}"/>
+    <hyperlink ref="F126" r:id="rId66" xr:uid="{282DAC4B-FAFD-4BEF-80ED-AE9400D44530}"/>
+    <hyperlink ref="F127" r:id="rId67" xr:uid="{7AFABFCC-C97B-4861-8B12-EC23A64E2957}"/>
+    <hyperlink ref="F130" r:id="rId68" xr:uid="{D476802F-E5A3-4578-B42A-9B741A180DEE}"/>
+    <hyperlink ref="F131" r:id="rId69" xr:uid="{CE47CE1E-73BE-4B54-A960-6994164F09CC}"/>
+    <hyperlink ref="F134" r:id="rId70" xr:uid="{CA7CB538-C398-4536-9FB1-7CC4EBADCBD2}"/>
+    <hyperlink ref="F135" r:id="rId71" xr:uid="{B916D962-9858-4368-AC71-DC902CF77811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
 
@@ -8459,55 +9192,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -11333,69 +12066,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -11704,7 +12437,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11714,69 +12447,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -12082,8 +12815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BD7658-17A8-482B-8537-27BDBC7D971C}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12096,55 +12829,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12154,6 +12887,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+      <c r="U6">
+        <v>60</v>
+      </c>
+      <c r="V6">
+        <v>70</v>
+      </c>
+      <c r="W6">
+        <v>80</v>
+      </c>
+      <c r="X6">
+        <v>90</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
@@ -12596,6 +13361,94 @@
       </c>
       <c r="Z12" s="4">
         <v>0.94182879399999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B8:B12)</f>
+        <v>0.80447470840000013</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="0">AVERAGE(C8:C12)</f>
+        <v>0.78470817140000004</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.77984435800000007</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.81003891039999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.81579766540000009</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.8461867703999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.85081712060000003</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.86941634259999989</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.84451361860000007</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.85747081680000004</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(P8:P12)</f>
+        <v>0.90505836600000011</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13" si="1">AVERAGE(Q8:Q12)</f>
+        <v>0.90120622559999997</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13" si="2">AVERAGE(R8:R12)</f>
+        <v>0.90264591440000008</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13" si="3">AVERAGE(S8:S12)</f>
+        <v>0.9046692608000001</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13" si="4">AVERAGE(T8:T12)</f>
+        <v>0.89249027260000013</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="5">AVERAGE(U8:U12)</f>
+        <v>0.89700389100000011</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13" si="6">AVERAGE(V8:V12)</f>
+        <v>0.90435797660000006</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13" si="7">AVERAGE(W8:W12)</f>
+        <v>0.9133463034</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13" si="8">AVERAGE(X8:X12)</f>
+        <v>0.90750972760000015</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13" si="9">AVERAGE(Y8:Y12)</f>
+        <v>0.90638132300000007</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -12644,6 +13497,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>50</v>
+      </c>
+      <c r="U18">
+        <v>60</v>
+      </c>
+      <c r="V18">
+        <v>70</v>
+      </c>
+      <c r="W18">
+        <v>80</v>
+      </c>
+      <c r="X18">
+        <v>90</v>
+      </c>
+      <c r="Y18">
+        <v>100</v>
+      </c>
+    </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
@@ -13086,6 +13971,94 @@
       </c>
       <c r="Z24" s="4">
         <v>0.93903278800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B20:B24)</f>
+        <v>0.79046559660000004</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25" si="10">AVERAGE(C20:C24)</f>
+        <v>0.8147571374</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="11">AVERAGE(D20:D24)</f>
+        <v>0.8364743898</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="12">AVERAGE(E20:E24)</f>
+        <v>0.83126224919999991</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="13">AVERAGE(F20:F24)</f>
+        <v>0.82050956080000004</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="14">AVERAGE(G20:G24)</f>
+        <v>0.81422744839999994</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="15">AVERAGE(H20:H24)</f>
+        <v>0.80441760700000009</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="16">AVERAGE(I20:I24)</f>
+        <v>0.81647333</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="17">AVERAGE(J20:J24)</f>
+        <v>0.81964087100000005</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="18">AVERAGE(K20:K24)</f>
+        <v>0.81349647800000002</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(P20:P24)</f>
+        <v>0.89164680319999989</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25" si="19">AVERAGE(Q20:Q24)</f>
+        <v>0.90380846459999997</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25" si="20">AVERAGE(R20:R24)</f>
+        <v>0.91080035999999998</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25" si="21">AVERAGE(S20:S24)</f>
+        <v>0.91232586459999998</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25" si="22">AVERAGE(T20:T24)</f>
+        <v>0.91193389459999996</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25" si="23">AVERAGE(U20:U24)</f>
+        <v>0.91301446040000001</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25" si="24">AVERAGE(V20:V24)</f>
+        <v>0.91231527100000009</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25" si="25">AVERAGE(W20:W24)</f>
+        <v>0.91437046440000014</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25" si="26">AVERAGE(X20:X24)</f>
+        <v>0.91537687379999999</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25" si="27">AVERAGE(Y20:Y24)</f>
+        <v>0.91533449880000006</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -13134,6 +14107,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+      <c r="S31">
+        <v>40</v>
+      </c>
+      <c r="T31">
+        <v>50</v>
+      </c>
+      <c r="U31">
+        <v>60</v>
+      </c>
+      <c r="V31">
+        <v>70</v>
+      </c>
+      <c r="W31">
+        <v>80</v>
+      </c>
+      <c r="X31">
+        <v>90</v>
+      </c>
+      <c r="Y31">
+        <v>100</v>
+      </c>
+    </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
@@ -13576,6 +14581,94 @@
       </c>
       <c r="Z37" s="4">
         <v>0.94629975499999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B33:B37)</f>
+        <v>0.73284168491564883</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="28">AVERAGE(C33:C37)</f>
+        <v>0.74068014942679228</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="29">AVERAGE(D33:D37)</f>
+        <v>0.74919489887932333</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="30">AVERAGE(E33:E37)</f>
+        <v>0.70103374983902145</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="31">AVERAGE(F33:F37)</f>
+        <v>0.70082442354763919</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="32">AVERAGE(G33:G37)</f>
+        <v>0.70459229679251967</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="33">AVERAGE(H33:H37)</f>
+        <v>0.74439971660445936</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="34">AVERAGE(I33:I37)</f>
+        <v>0.74472819786170541</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="35">AVERAGE(J33:J37)</f>
+        <v>0.74594229035172266</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38" si="36">AVERAGE(K33:K37)</f>
+        <v>0.75226716475594957</v>
+      </c>
+      <c r="O38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <f>AVERAGE(P33:P37)</f>
+        <v>0.91574777780000005</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38" si="37">AVERAGE(Q33:Q37)</f>
+        <v>0.92166044059999996</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38" si="38">AVERAGE(R33:R37)</f>
+        <v>0.92636867199999995</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38" si="39">AVERAGE(S33:S37)</f>
+        <v>0.93459680540000001</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38" si="40">AVERAGE(T33:T37)</f>
+        <v>0.93547597559999995</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38" si="41">AVERAGE(U33:U37)</f>
+        <v>0.93617802379999993</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38" si="42">AVERAGE(V33:V37)</f>
+        <v>0.94480548740000003</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38" si="43">AVERAGE(W33:W37)</f>
+        <v>0.94499871179999995</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ref="X38" si="44">AVERAGE(X33:X37)</f>
+        <v>0.94513074820000009</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38" si="45">AVERAGE(Y33:Y37)</f>
+        <v>0.94626433080000005</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -13625,8 +14718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4722C04-9C38-4BC7-8C1A-A00F5132A1D2}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13639,55 +14732,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -14663,10 +15756,6 @@
       <c r="X26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y26" s="8">
-        <f>AVERAGE(P20:Y24)</f>
-        <v>0.87765559624000067</v>
-      </c>
       <c r="Z26" s="6"/>
     </row>
     <row r="29" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -15149,7 +16238,7 @@
         <v>16</v>
       </c>
       <c r="Y40" s="8">
-        <f>AVERAGE(Y14,Y26,Y39)</f>
+        <f>AVERAGE(Y14,Latex!E131,Y39)</f>
         <v>0.89326882637865124</v>
       </c>
     </row>
@@ -15178,30 +16267,30 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D6" s="6">
@@ -15264,30 +16353,30 @@
       <c r="W6" s="7">
         <v>100</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="22" t="s">
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
     </row>
     <row r="7" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -15755,8 +16844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07BDD7-76C6-4DDC-B9C7-3C484D88A834}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15767,18 +16856,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -15904,18 +16993,18 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16228,21 +17317,21 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="26"/>
+      <c r="D49" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">

--- a/results/results_13.02.2022.xlsx
+++ b/results/results_13.02.2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0DA3E-6F43-4E37-8E5E-3F70C4878C6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA86CF83-8570-49E2-84CD-6DCCC2363782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_mean results" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="120">
   <si>
     <t>PR_U2_W</t>
   </si>
@@ -4852,24 +4852,27 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23298C6-910C-4F44-97D8-518EAAC35C79}">
-  <dimension ref="A3:X135"/>
+  <dimension ref="A3:Z163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:F135"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
@@ -4906,44 +4909,44 @@
       <c r="L3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="13">
         <v>60</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="13">
+      <c r="P3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="13">
         <v>70</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="13">
         <v>80</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="13">
+      <c r="T3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="13">
         <v>90</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="13">
+      <c r="V3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="13">
         <v>100</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -4965,9 +4968,6 @@
       <c r="L4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P4" s="10" t="s">
         <v>30</v>
       </c>
@@ -4980,12 +4980,15 @@
       <c r="V4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -5007,9 +5010,6 @@
       <c r="L5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" s="10" t="s">
         <v>30</v>
       </c>
@@ -5022,12 +5022,15 @@
       <c r="V5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -5049,9 +5052,6 @@
       <c r="L6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P6" s="10" t="s">
         <v>30</v>
       </c>
@@ -5064,12 +5064,15 @@
       <c r="V6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -5091,9 +5094,6 @@
       <c r="L7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P7" s="10" t="s">
         <v>30</v>
       </c>
@@ -5106,12 +5106,15 @@
       <c r="V7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -5133,9 +5136,6 @@
       <c r="L8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P8" s="10" t="s">
         <v>30</v>
       </c>
@@ -5148,17 +5148,20 @@
       <c r="V8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -5195,44 +5198,44 @@
       <c r="L12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="13">
+      <c r="N12" s="13">
         <v>60</v>
       </c>
-      <c r="N12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="P12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="13">
         <v>70</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="R12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="13">
         <v>80</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="T12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="13">
         <v>90</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="13">
+      <c r="V12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="13">
         <v>100</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="Z12" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -5269,44 +5272,44 @@
       <c r="L13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>0.880350195</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="10">
         <v>0.90097276299999995</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="10">
         <v>0.92354085600000002</v>
       </c>
-      <c r="R13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="10">
         <v>0.90038910500000002</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="10">
         <v>0.89105058400000003</v>
       </c>
-      <c r="V13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W13" s="15">
+      <c r="X13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="15">
         <v>0.92879377399999996</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="Z13" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
@@ -5343,44 +5346,44 @@
       <c r="L14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>0.88404669300000005</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="P14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="10">
         <v>0.88657587500000001</v>
       </c>
-      <c r="P14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="10">
         <v>0.88949416299999995</v>
       </c>
-      <c r="R14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="10">
         <v>0.88793774299999995</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="10">
         <v>0.88988326799999995</v>
       </c>
-      <c r="V14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="15">
+      <c r="X14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="15">
         <v>0.85525291800000003</v>
       </c>
-      <c r="X14" s="12" t="s">
+      <c r="Z14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -5417,44 +5420,44 @@
       <c r="L15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>0.93910505799999999</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="10">
         <v>0.94085603100000004</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="10">
         <v>0.94260700399999997</v>
       </c>
-      <c r="R15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="10">
         <v>0.94163424100000004</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="10">
         <v>0.93988326799999999</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W15" s="15">
+      <c r="X15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="15">
         <v>0.93346303500000005</v>
       </c>
-      <c r="X15" s="12" t="s">
+      <c r="Z15" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -5491,44 +5494,44 @@
       <c r="L16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>0.84902723700000005</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="P16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="10">
         <v>0.85894941599999997</v>
       </c>
-      <c r="P16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="10">
         <v>0.87159533099999997</v>
       </c>
-      <c r="R16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="10">
         <v>0.87023346300000004</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="10">
+      <c r="V16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="10">
         <v>0.87412451400000002</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="15">
+      <c r="X16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="15">
         <v>0.93385214000000005</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="Z16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
@@ -5565,49 +5568,49 @@
       <c r="L17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>0.93249027200000001</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="P17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="10">
         <v>0.93443579799999998</v>
       </c>
-      <c r="P17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="10">
         <v>0.93949416299999999</v>
       </c>
-      <c r="R17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="10">
         <v>0.93735408600000003</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="10">
         <v>0.93696498100000003</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="15">
+      <c r="X17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="15">
         <v>0.94182879399999997</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="Z17" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -5644,44 +5647,44 @@
       <c r="L22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="13">
+      <c r="N22" s="13">
         <v>60</v>
       </c>
-      <c r="N22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="13">
+      <c r="P22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="13">
         <v>70</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="13">
+      <c r="R22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="13">
         <v>80</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="13">
+      <c r="T22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="13">
         <v>90</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="13">
+      <c r="V22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="13">
         <v>100</v>
       </c>
-      <c r="V22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="13" t="s">
+      <c r="X22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="Z22" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>33</v>
       </c>
@@ -5718,44 +5721,44 @@
       <c r="L23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>0.90899941699999998</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="P23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="10">
         <v>0.91042957800000002</v>
       </c>
-      <c r="P23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="10">
         <v>0.91577943699999997</v>
       </c>
-      <c r="R23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="10">
         <v>0.91848085199999996</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="10">
+      <c r="V23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="10">
         <v>0.91795116300000001</v>
       </c>
-      <c r="V23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W23" s="15">
+      <c r="X23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="15">
         <v>0.92340696</v>
       </c>
-      <c r="X23" s="12" t="s">
+      <c r="Z23" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -5792,44 +5795,44 @@
       <c r="L24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>0.86927273699999996</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="P24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="10">
         <v>0.86281052999999996</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="10">
+      <c r="R24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="10">
         <v>0.86259865499999999</v>
       </c>
-      <c r="R24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="10">
         <v>0.86286349900000003</v>
       </c>
-      <c r="T24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="10">
+      <c r="V24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="10">
         <v>0.86302240600000002</v>
       </c>
-      <c r="V24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W24" s="15">
+      <c r="X24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="15">
         <v>0.92669753099999996</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="Z24" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -5866,44 +5869,44 @@
       <c r="L25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>0.93204089199999995</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" s="10">
+      <c r="P25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="10">
         <v>0.93219979900000005</v>
       </c>
-      <c r="P25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="10">
         <v>0.93214682999999998</v>
       </c>
-      <c r="R25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="10">
         <v>0.93219979900000005</v>
       </c>
-      <c r="T25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="10">
+      <c r="V25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="10">
         <v>0.93209386100000002</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W25" s="15">
+      <c r="X25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="15">
         <v>0.93219979900000005</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="Z25" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -5940,44 +5943,44 @@
       <c r="L26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>0.91699772199999996</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="10">
+      <c r="P26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="10">
         <v>0.91832194499999997</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="10">
         <v>0.92319508400000005</v>
       </c>
-      <c r="R26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S26" s="10">
+      <c r="T26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" s="10">
         <v>0.92515493400000004</v>
       </c>
-      <c r="T26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U26" s="10">
+      <c r="V26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="10">
         <v>0.92541977900000005</v>
       </c>
-      <c r="V26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W26" s="15">
+      <c r="X26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="15">
         <v>0.925949468</v>
       </c>
-      <c r="X26" s="12" t="s">
+      <c r="Z26" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -6014,26 +6017,20 @@
       <c r="L27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>0.93776153399999995</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="10">
+      <c r="P27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="10">
         <v>0.93781450300000002</v>
       </c>
-      <c r="P27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="10">
         <v>0.93813231600000002</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="10">
-        <v>0.93818528499999998</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>30</v>
@@ -6044,19 +6041,25 @@
       <c r="V27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="10">
+        <v>0.93818528499999998</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y27" s="15">
         <v>0.93903278800000001</v>
       </c>
-      <c r="X27" s="12" t="s">
+      <c r="Z27" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -6093,44 +6096,44 @@
       <c r="L31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="13">
+      <c r="N31" s="13">
         <v>60</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="13">
+      <c r="P31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="13">
         <v>70</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="13">
+      <c r="R31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="13">
         <v>80</v>
       </c>
-      <c r="R31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S31" s="13">
+      <c r="T31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="13">
         <v>90</v>
       </c>
-      <c r="T31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="13">
+      <c r="V31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="13">
         <v>100</v>
       </c>
-      <c r="V31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W31" s="13" t="s">
+      <c r="X31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X31" s="14" t="s">
+      <c r="Z31" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
@@ -6167,44 +6170,44 @@
       <c r="L32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="10">
+      <c r="N32" s="10">
         <v>0.93164691499999996</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="P32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="10">
         <v>0.94646077500000003</v>
       </c>
-      <c r="P32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="10">
         <v>0.94663789799999998</v>
       </c>
-      <c r="R32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="10">
         <v>0.94700824400000005</v>
       </c>
-      <c r="T32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U32" s="10">
+      <c r="V32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="10">
         <v>0.94876336500000003</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W32" s="11">
+      <c r="X32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="11">
         <v>0.95823135400000004</v>
       </c>
-      <c r="X32" s="12" t="s">
+      <c r="Z32" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
@@ -6241,44 +6244,44 @@
       <c r="L33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>0.96151616600000001</v>
       </c>
-      <c r="N33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" s="10">
+      <c r="P33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="10">
         <v>0.95335244100000005</v>
       </c>
-      <c r="P33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="10">
         <v>0.95340074699999999</v>
       </c>
-      <c r="R33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S33" s="10">
+      <c r="T33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="10">
         <v>0.95328803299999998</v>
       </c>
-      <c r="T33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U33" s="10">
+      <c r="V33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="10">
         <v>0.95356176699999995</v>
       </c>
-      <c r="V33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W33" s="11">
+      <c r="X33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="11">
         <v>0.94943964999999997</v>
       </c>
-      <c r="X33" s="12" t="s">
+      <c r="Z33" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>34</v>
       </c>
@@ -6315,20 +6318,14 @@
       <c r="L34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="10">
+      <c r="N34" s="10">
         <v>0.94776503899999998</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" s="10">
+      <c r="P34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="10">
         <v>0.949971016</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>0.95000322000000004</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>30</v>
@@ -6340,19 +6337,25 @@
         <v>30</v>
       </c>
       <c r="U34" s="10">
+        <v>0.95000322000000004</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="10">
         <v>0.950099833</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W34" s="11">
+      <c r="X34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="11">
         <v>0.950598995</v>
       </c>
-      <c r="X34" s="12" t="s">
+      <c r="Z34" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>35</v>
       </c>
@@ -6389,44 +6392,44 @@
       <c r="L35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="10">
         <v>0.89978101200000005</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" s="10">
+      <c r="P35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="10">
         <v>0.92936042799999996</v>
       </c>
-      <c r="P35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="10">
         <v>0.93019773299999997</v>
       </c>
-      <c r="R35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S35" s="10">
+      <c r="T35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="10">
         <v>0.93066469100000004</v>
       </c>
-      <c r="T35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U35" s="10">
+      <c r="V35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="10">
         <v>0.93398170800000002</v>
       </c>
-      <c r="V35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W35" s="11">
+      <c r="X35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="11">
         <v>0.94436751299999999</v>
       </c>
-      <c r="X35" s="12" t="s">
+      <c r="Z35" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -6463,49 +6466,49 @@
       <c r="L36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>0.94018098699999997</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="10">
         <v>0.94488277700000001</v>
       </c>
-      <c r="P36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="10">
         <v>0.94475396099999998</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="10">
         <v>0.94468955300000002</v>
       </c>
-      <c r="T36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U36" s="10">
+      <c r="V36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="10">
         <v>0.94491498100000004</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W36" s="11">
+      <c r="X36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="11">
         <v>0.94629975499999996</v>
       </c>
-      <c r="X36" s="12" t="s">
+      <c r="Z36" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -6542,44 +6545,44 @@
       <c r="L40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="13">
+      <c r="N40" s="13">
         <v>60</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="13">
+      <c r="P40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="13">
         <v>70</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="13">
+      <c r="R40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="13">
         <v>80</v>
       </c>
-      <c r="R40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S40" s="13">
+      <c r="T40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="13">
         <v>90</v>
       </c>
-      <c r="T40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U40" s="13">
+      <c r="V40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" s="13">
         <v>100</v>
       </c>
-      <c r="V40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W40" s="13" t="s">
+      <c r="X40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X40" s="14" t="s">
+      <c r="Z40" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>33</v>
       </c>
@@ -6616,44 +6619,44 @@
       <c r="L41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>0.88287937699999997</v>
       </c>
-      <c r="N41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" s="10">
+      <c r="P41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="10">
         <v>0.89027237400000003</v>
       </c>
-      <c r="P41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="10">
         <v>0.90097276299999995</v>
       </c>
-      <c r="R41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S41" s="10">
+      <c r="T41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="10">
         <v>0.846498054</v>
       </c>
-      <c r="T41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" s="10">
+      <c r="V41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="10">
         <v>0.86225680900000001</v>
       </c>
-      <c r="V41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W41" s="15">
+      <c r="X41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="15">
         <v>0.92879377399999996</v>
       </c>
-      <c r="X41" s="12" t="s">
+      <c r="Z41" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>1</v>
       </c>
@@ -6690,44 +6693,44 @@
       <c r="L42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>0.85019455300000002</v>
       </c>
-      <c r="N42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O42" s="10">
+      <c r="P42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="10">
         <v>0.83424124499999996</v>
       </c>
-      <c r="P42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="10">
+      <c r="R42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="10">
         <v>0.86322957199999995</v>
       </c>
-      <c r="R42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S42" s="10">
+      <c r="T42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" s="10">
         <v>0.84357976700000004</v>
       </c>
-      <c r="T42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U42" s="10">
+      <c r="V42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="10">
         <v>0.85972762599999997</v>
       </c>
-      <c r="V42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W42" s="15">
+      <c r="X42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" s="15">
         <v>0.85525291800000003</v>
       </c>
-      <c r="X42" s="12" t="s">
+      <c r="Z42" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>34</v>
       </c>
@@ -6764,44 +6767,44 @@
       <c r="L43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="10">
+      <c r="N43" s="10">
         <v>0.85408560300000003</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="10">
+      <c r="P43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="10">
         <v>0.85603112800000003</v>
       </c>
-      <c r="P43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="10">
+      <c r="R43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="10">
         <v>0.86731517499999999</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S43" s="10">
+      <c r="T43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="10">
         <v>0.84785992200000004</v>
       </c>
-      <c r="T43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U43" s="10">
+      <c r="V43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" s="10">
         <v>0.85972762599999997</v>
       </c>
-      <c r="V43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W43" s="15">
+      <c r="X43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="15">
         <v>0.93346303500000005</v>
       </c>
-      <c r="X43" s="12" t="s">
+      <c r="Z43" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>35</v>
       </c>
@@ -6838,44 +6841,44 @@
       <c r="L44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="10">
+      <c r="N44" s="10">
         <v>0.82821011700000002</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="10">
+      <c r="P44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="10">
         <v>0.84260700399999999</v>
       </c>
-      <c r="P44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" s="10">
         <v>0.86089494200000005</v>
       </c>
-      <c r="R44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S44" s="10">
+      <c r="T44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="10">
         <v>0.84474708200000004</v>
       </c>
-      <c r="T44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U44" s="10">
+      <c r="V44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="10">
         <v>0.85447470800000003</v>
       </c>
-      <c r="V44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W44" s="15">
+      <c r="X44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y44" s="15">
         <v>0.93385214000000005</v>
       </c>
-      <c r="X44" s="12" t="s">
+      <c r="Z44" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>36</v>
       </c>
@@ -6912,49 +6915,49 @@
       <c r="L45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="10">
+      <c r="N45" s="10">
         <v>0.81556420200000002</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" s="10">
+      <c r="P45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="10">
         <v>0.83093385200000003</v>
       </c>
-      <c r="P45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="10">
+      <c r="R45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" s="10">
         <v>0.85466926099999996</v>
       </c>
-      <c r="R45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S45" s="10">
+      <c r="T45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="10">
         <v>0.83988326800000002</v>
       </c>
-      <c r="T45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" s="10">
+      <c r="V45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="10">
         <v>0.85116731499999998</v>
       </c>
-      <c r="V45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W45" s="15">
+      <c r="X45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y45" s="15">
         <v>0.94182879399999997</v>
       </c>
-      <c r="X45" s="12" t="s">
+      <c r="Z45" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>37</v>
       </c>
@@ -6991,44 +6994,44 @@
       <c r="L49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="13">
+      <c r="N49" s="13">
         <v>60</v>
       </c>
-      <c r="N49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="13">
+      <c r="P49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="13">
         <v>70</v>
       </c>
-      <c r="P49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="13">
+      <c r="R49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="13">
         <v>80</v>
       </c>
-      <c r="R49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S49" s="13">
+      <c r="T49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="13">
         <v>90</v>
       </c>
-      <c r="T49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U49" s="13">
+      <c r="V49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W49" s="13">
         <v>100</v>
       </c>
-      <c r="V49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W49" s="13" t="s">
+      <c r="X49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="14" t="s">
+      <c r="Z49" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>33</v>
       </c>
@@ -7065,44 +7068,44 @@
       <c r="L50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="10">
+      <c r="N50" s="10">
         <v>0.81508554499999997</v>
       </c>
-      <c r="N50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="10">
+      <c r="P50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="10">
         <v>0.80459770100000005</v>
       </c>
-      <c r="P50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="10">
+      <c r="R50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="10">
         <v>0.81640976700000001</v>
       </c>
-      <c r="R50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" s="10">
+      <c r="T50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U50" s="10">
         <v>0.81974680899999997</v>
       </c>
-      <c r="T50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" s="10">
+      <c r="V50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="10">
         <v>0.81349647800000002</v>
       </c>
-      <c r="V50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W50" s="15">
+      <c r="X50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y50" s="15">
         <v>0.92340696</v>
       </c>
-      <c r="X50" s="12" t="s">
+      <c r="Z50" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>1</v>
       </c>
@@ -7139,44 +7142,44 @@
       <c r="L51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="10">
+      <c r="N51" s="10">
         <v>0.81402616699999997</v>
       </c>
-      <c r="N51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O51" s="10">
+      <c r="P51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="10">
         <v>0.80359129200000001</v>
       </c>
-      <c r="P51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="10">
+      <c r="R51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="10">
         <v>0.81635679900000002</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S51" s="10">
+      <c r="T51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="10">
         <v>0.81969384000000001</v>
       </c>
-      <c r="T51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U51" s="10">
+      <c r="V51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W51" s="10">
         <v>0.81349647800000002</v>
       </c>
-      <c r="V51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W51" s="15">
+      <c r="X51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y51" s="15">
         <v>0.92669753099999996</v>
       </c>
-      <c r="X51" s="12" t="s">
+      <c r="Z51" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>34</v>
       </c>
@@ -7213,44 +7216,44 @@
       <c r="L52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="10">
+      <c r="N52" s="10">
         <v>0.81376132199999995</v>
       </c>
-      <c r="N52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O52" s="10">
+      <c r="P52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="10">
         <v>0.804068012</v>
       </c>
-      <c r="P52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="10">
+      <c r="R52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" s="10">
         <v>0.81646273599999997</v>
       </c>
-      <c r="R52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S52" s="10">
+      <c r="T52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52" s="10">
         <v>0.81948196399999995</v>
       </c>
-      <c r="T52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U52" s="10">
+      <c r="V52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W52" s="10">
         <v>0.81349647800000002</v>
       </c>
-      <c r="V52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W52" s="15">
+      <c r="X52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y52" s="15">
         <v>0.93219979900000005</v>
       </c>
-      <c r="X52" s="12" t="s">
+      <c r="Z52" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>35</v>
       </c>
@@ -7287,44 +7290,44 @@
       <c r="L53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="10">
+      <c r="N53" s="10">
         <v>0.81471476200000004</v>
       </c>
-      <c r="N53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O53" s="10">
+      <c r="P53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="10">
         <v>0.80544520399999997</v>
       </c>
-      <c r="P53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="10">
+      <c r="R53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" s="10">
         <v>0.81656867399999999</v>
       </c>
-      <c r="R53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S53" s="10">
+      <c r="T53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="10">
         <v>0.81964087100000005</v>
       </c>
-      <c r="T53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U53" s="10">
+      <c r="V53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W53" s="10">
         <v>0.81349647800000002</v>
       </c>
-      <c r="V53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W53" s="15">
+      <c r="X53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y53" s="15">
         <v>0.925949468</v>
       </c>
-      <c r="X53" s="12" t="s">
+      <c r="Z53" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -7361,49 +7364,49 @@
       <c r="L54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="10">
+      <c r="N54" s="10">
         <v>0.81354944600000001</v>
       </c>
-      <c r="N54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O54" s="10">
+      <c r="P54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="10">
         <v>0.80438582599999997</v>
       </c>
-      <c r="P54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q54" s="10">
+      <c r="R54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="10">
         <v>0.81656867399999999</v>
       </c>
-      <c r="R54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S54" s="10">
+      <c r="T54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="10">
         <v>0.81964087100000005</v>
       </c>
-      <c r="T54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U54" s="10">
+      <c r="V54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W54" s="10">
         <v>0.81349647800000002</v>
       </c>
-      <c r="V54" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W54" s="15">
+      <c r="X54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y54" s="15">
         <v>0.93903278800000001</v>
       </c>
-      <c r="X54" s="12" t="s">
+      <c r="Z54" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>37</v>
       </c>
@@ -7440,44 +7443,44 @@
       <c r="L59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M59" s="13">
+      <c r="N59" s="13">
         <v>60</v>
       </c>
-      <c r="N59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O59" s="13">
+      <c r="P59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="13">
         <v>70</v>
       </c>
-      <c r="P59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="13">
+      <c r="R59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="13">
         <v>80</v>
       </c>
-      <c r="R59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S59" s="13">
+      <c r="T59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="13">
         <v>90</v>
       </c>
-      <c r="T59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U59" s="13">
+      <c r="V59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W59" s="13">
         <v>100</v>
       </c>
-      <c r="V59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W59" s="13" t="s">
+      <c r="X59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X59" s="14" t="s">
+      <c r="Z59" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>33</v>
       </c>
@@ -7514,44 +7517,44 @@
       <c r="L60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="10">
+      <c r="N60" s="10">
         <v>0.70349735926836598</v>
       </c>
-      <c r="N60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O60" s="10">
+      <c r="P60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="10">
         <v>0.741272703851657</v>
       </c>
-      <c r="P60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="10">
+      <c r="R60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="10">
         <v>0.74188458070339003</v>
       </c>
-      <c r="R60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S60" s="10">
+      <c r="T60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="10">
         <v>0.743800721370658</v>
       </c>
-      <c r="T60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U60" s="10">
+      <c r="V60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W60" s="10">
         <v>0.75078899909834296</v>
       </c>
-      <c r="V60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W60" s="15">
+      <c r="X60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y60" s="15">
         <v>0.95823135400000004</v>
       </c>
-      <c r="X60" s="12" t="s">
+      <c r="Z60" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>1</v>
       </c>
@@ -7588,44 +7591,44 @@
       <c r="L61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M61" s="10">
+      <c r="N61" s="10">
         <v>0.70586435656322699</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O61" s="10">
+      <c r="P61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="10">
         <v>0.74549143372412996</v>
       </c>
-      <c r="P61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q61" s="10">
+      <c r="R61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" s="10">
         <v>0.74484735282756898</v>
       </c>
-      <c r="R61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S61" s="10">
+      <c r="T61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="10">
         <v>0.74613551462069105</v>
       </c>
-      <c r="T61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U61" s="10">
+      <c r="V61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W61" s="10">
         <v>0.751706814375942</v>
       </c>
-      <c r="V61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W61" s="15">
+      <c r="X61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y61" s="15">
         <v>0.94943964999999997</v>
       </c>
-      <c r="X61" s="12" t="s">
+      <c r="Z61" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>34</v>
       </c>
@@ -7662,44 +7665,44 @@
       <c r="L62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M62" s="10">
+      <c r="N62" s="10">
         <v>0.70375499162699096</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O62" s="10">
+      <c r="P62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="10">
         <v>0.74357529305686199</v>
       </c>
-      <c r="P62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q62" s="10">
+      <c r="R62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" s="10">
         <v>0.74330155867582304</v>
       </c>
-      <c r="R62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S62" s="10">
+      <c r="T62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="10">
         <v>0.74473463867067102</v>
       </c>
-      <c r="T62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U62" s="10">
+      <c r="V62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W62" s="10">
         <v>0.75188393662249597</v>
       </c>
-      <c r="V62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W62" s="15">
+      <c r="X62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y62" s="15">
         <v>0.950598995</v>
       </c>
-      <c r="X62" s="12" t="s">
+      <c r="Z62" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>35</v>
       </c>
@@ -7736,44 +7739,44 @@
       <c r="L63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M63" s="10">
+      <c r="N63" s="10">
         <v>0.70591266263046903</v>
       </c>
-      <c r="N63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" s="10">
+      <c r="P63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="10">
         <v>0.74615161664310403</v>
       </c>
-      <c r="P63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" s="10">
+      <c r="R63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" s="10">
         <v>0.747198248100016</v>
       </c>
-      <c r="R63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S63" s="10">
+      <c r="T63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="10">
         <v>0.74797114517588903</v>
       </c>
-      <c r="T63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" s="10">
+      <c r="V63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W63" s="10">
         <v>0.75373566920010804</v>
       </c>
-      <c r="V63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W63" s="15">
+      <c r="X63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y63" s="15">
         <v>0.94436751299999999</v>
       </c>
-      <c r="X63" s="12" t="s">
+      <c r="Z63" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>36</v>
       </c>
@@ -7810,49 +7813,49 @@
       <c r="L64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="10">
+      <c r="N64" s="10">
         <v>0.70393211387354504</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" s="10">
+      <c r="P64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="10">
         <v>0.74550753574654405</v>
       </c>
-      <c r="P64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q64" s="10">
+      <c r="R64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="10">
         <v>0.746409249001729</v>
       </c>
-      <c r="R64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S64" s="10">
+      <c r="T64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64" s="10">
         <v>0.74706943192070396</v>
       </c>
-      <c r="T64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U64" s="10">
+      <c r="V64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W64" s="10">
         <v>0.75322040448285899</v>
       </c>
-      <c r="V64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W64" s="15">
+      <c r="X64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y64" s="15">
         <v>0.94629975499999996</v>
       </c>
-      <c r="X64" s="12" t="s">
+      <c r="Z64" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>37</v>
       </c>
@@ -7889,38 +7892,40 @@
       <c r="L68" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="13"/>
+      <c r="N68" s="13">
         <v>60</v>
       </c>
-      <c r="N68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="13">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="13">
         <v>70</v>
       </c>
-      <c r="P68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q68" s="13">
+      <c r="R68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" s="13">
         <v>80</v>
       </c>
-      <c r="R68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S68" s="13">
+      <c r="T68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U68" s="13">
         <v>90</v>
       </c>
-      <c r="T68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U68" s="13">
+      <c r="V68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W68" s="13">
         <v>100</v>
       </c>
-      <c r="V68" s="14" t="s">
+      <c r="X68" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -7957,38 +7962,38 @@
       <c r="L69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M69" s="10">
+      <c r="N69" s="10">
         <v>23.913043478260871</v>
       </c>
-      <c r="N69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O69" s="10">
+      <c r="P69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q69" s="10">
         <v>24.688279301745634</v>
       </c>
-      <c r="P69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q69" s="10">
+      <c r="R69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" s="10">
         <v>21.806853582554517</v>
       </c>
-      <c r="R69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S69" s="10">
+      <c r="T69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U69" s="10">
         <v>20</v>
       </c>
-      <c r="T69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U69" s="10">
+      <c r="V69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W69" s="10">
         <v>19.776119402985074</v>
       </c>
-      <c r="V69" s="12" t="s">
+      <c r="X69" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>53</v>
       </c>
@@ -8025,38 +8030,38 @@
       <c r="L70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="10">
+      <c r="N70" s="10">
         <v>16.301703163017031</v>
       </c>
-      <c r="N70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O70" s="10">
+      <c r="P70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="10">
         <v>16.598079561042525</v>
       </c>
-      <c r="P70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q70" s="10">
+      <c r="R70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" s="10">
         <v>18.336483931947068</v>
       </c>
-      <c r="R70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S70" s="10">
+      <c r="T70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U70" s="10">
         <v>19.206680584551147</v>
       </c>
-      <c r="T70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U70" s="10">
+      <c r="V70" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W70" s="10">
         <v>19.148936170212767</v>
       </c>
-      <c r="V70" s="12" t="s">
+      <c r="X70" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>54</v>
       </c>
@@ -8093,43 +8098,43 @@
       <c r="L71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M71" s="10">
+      <c r="N71" s="10">
         <v>12.253521126760564</v>
       </c>
-      <c r="N71" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O71" s="10">
+      <c r="P71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="10">
         <v>18.426395939086294</v>
       </c>
-      <c r="P71" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q71" s="10">
+      <c r="R71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="10">
         <v>19.104991394148019</v>
       </c>
-      <c r="R71" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S71" s="10">
+      <c r="T71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U71" s="10">
         <v>18.836232753449309</v>
       </c>
-      <c r="T71" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U71" s="10">
+      <c r="V71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W71" s="10">
         <v>19.370979270907792</v>
       </c>
-      <c r="V71" s="12" t="s">
+      <c r="X71" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>37</v>
       </c>
@@ -8166,38 +8171,40 @@
       <c r="L76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="13"/>
+      <c r="N76" s="13">
         <v>60</v>
       </c>
-      <c r="N76" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O76" s="13">
+      <c r="O76" s="13"/>
+      <c r="P76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="13">
         <v>70</v>
       </c>
-      <c r="P76" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q76" s="13">
+      <c r="R76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S76" s="13">
         <v>80</v>
       </c>
-      <c r="R76" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S76" s="13">
+      <c r="T76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U76" s="13">
         <v>90</v>
       </c>
-      <c r="T76" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U76" s="13">
+      <c r="V76" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W76" s="13">
         <v>100</v>
       </c>
-      <c r="V76" s="14" t="s">
+      <c r="X76" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -8234,38 +8241,38 @@
       <c r="L77" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="10">
+      <c r="N77" s="10">
         <v>4.6043478260869568</v>
       </c>
-      <c r="N77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O77" s="10">
+      <c r="P77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="10">
         <v>5.2817955112219455</v>
       </c>
-      <c r="P77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q77" s="10">
+      <c r="R77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" s="10">
         <v>6.5981308411214954</v>
       </c>
-      <c r="R77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S77" s="10">
+      <c r="T77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U77" s="10">
         <v>7.06</v>
       </c>
-      <c r="T77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U77" s="10">
+      <c r="V77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W77" s="10">
         <v>7.9029850746268657</v>
       </c>
-      <c r="V77" s="12" t="s">
+      <c r="X77" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>53</v>
       </c>
@@ -8302,38 +8309,38 @@
       <c r="L78" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M78" s="10">
+      <c r="N78" s="10">
         <v>1.9671532846715329</v>
       </c>
-      <c r="N78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O78" s="10">
+      <c r="P78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="10">
         <v>2.2181069958847734</v>
       </c>
-      <c r="P78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q78" s="10">
+      <c r="R78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S78" s="10">
         <v>3.0567107750472591</v>
       </c>
-      <c r="R78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S78" s="10">
+      <c r="T78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U78" s="10">
         <v>3.3757828810020878</v>
       </c>
-      <c r="T78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U78" s="10">
+      <c r="V78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W78" s="10">
         <v>3.4404255319148938</v>
       </c>
-      <c r="V78" s="12" t="s">
+      <c r="X78" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>54</v>
       </c>
@@ -8370,34 +8377,34 @@
       <c r="L79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M79" s="10">
+      <c r="N79" s="10">
         <v>4.8772300469483572</v>
       </c>
-      <c r="N79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O79" s="10">
+      <c r="P79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="10">
         <v>10.546700507614213</v>
       </c>
-      <c r="P79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q79" s="10">
+      <c r="R79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S79" s="10">
         <v>11.920252438324727</v>
       </c>
-      <c r="R79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S79" s="10">
+      <c r="T79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U79" s="10">
         <v>12.46370725854829</v>
       </c>
-      <c r="T79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U79" s="10">
+      <c r="V79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W79" s="10">
         <v>14.85132237312366</v>
       </c>
-      <c r="V79" s="12" t="s">
+      <c r="X79" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8634,6 +8641,19 @@
         <v>32</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
@@ -8914,239 +8934,788 @@
         <v>32</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>46</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120">
+        <v>32</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
-        <v>15</v>
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C122" s="10">
-        <v>0.79138325745915938</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="10">
-        <v>0.91622743965999998</v>
+      <c r="A122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>55</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122">
+        <v>38</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>118</v>
+      <c r="A123" t="s">
+        <v>74</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="10">
-        <v>0.7308388011994551</v>
+      <c r="C123">
+        <v>25</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="10">
-        <v>0.89326882637865124</v>
+      <c r="E123">
+        <v>16</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>18</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124">
+        <v>13</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
-        <v>27</v>
+      <c r="A125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125">
+        <v>12</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="10">
-        <v>0.82632684826000014</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="10">
-        <v>0.90346692610000001</v>
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>60</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126">
+        <v>43</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>118</v>
+      <c r="A127" t="s">
+        <v>78</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C127" s="10">
-        <v>0.74138910505836519</v>
+      <c r="C127">
+        <v>242</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E127" s="10">
-        <v>0.87343968871595312</v>
+      <c r="E127">
+        <v>213</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>46</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
-        <v>119</v>
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>17</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>117</v>
+      <c r="A130" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C130" s="10">
-        <v>0.81617246681999989</v>
+      <c r="C130">
+        <v>153</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="10">
-        <v>0.91009269553999994</v>
+      <c r="E130">
+        <v>129</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
+      <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131">
+        <v>82</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131">
+        <v>25</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>208</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133">
+        <v>178</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>91</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134">
+        <v>68</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135">
+        <v>80</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>102</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137">
+        <v>28</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138">
+        <v>17</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>90</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>26</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>19</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>22</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="10">
+        <v>0.79138325745915938</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="10">
+        <v>0.91622743965999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="10">
+      <c r="B151" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0.7308388011994551</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="10">
+        <v>0.89326882637865124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="10">
+        <v>0.82632684826000014</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="10">
+        <v>0.90346692610000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="10">
+        <v>0.74138910505836519</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="10">
+        <v>0.87343968871595312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="10">
+        <v>0.81617246681999989</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="10">
+        <v>0.91009269553999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="10">
         <v>0.7523449334600002</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E131" s="10">
+      <c r="D159" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="10">
         <f>AVERAGE('Confidence classic x 100'!P20:Y24)</f>
         <v>0.87765559624000067</v>
       </c>
-      <c r="F131" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="10">
+      <c r="B162" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" s="10">
         <v>0.73165045729747813</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="10">
+      <c r="D162" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="10">
         <v>0.93512269733999975</v>
       </c>
-      <c r="F134" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="10">
+      <c r="B163" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="10">
         <v>0.69878236508000002</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E135" s="10">
+      <c r="D163" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="10">
         <v>0.92871119417999981</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X13" r:id="rId1" xr:uid="{5A7CA082-A19D-4BF9-B2C4-E71FEC3FDB0B}"/>
-    <hyperlink ref="X14" r:id="rId2" xr:uid="{834D43E6-E787-4436-A4FE-0D44C1460638}"/>
-    <hyperlink ref="X15" r:id="rId3" xr:uid="{B7D0E31D-451F-4817-B316-45148897402A}"/>
-    <hyperlink ref="X16" r:id="rId4" xr:uid="{5ADD5EF6-0BBD-4EA6-A245-B7E0B47C45A0}"/>
-    <hyperlink ref="X17" r:id="rId5" xr:uid="{ADBDC2BB-CC54-4C93-831A-90B8006B30EC}"/>
-    <hyperlink ref="X23" r:id="rId6" xr:uid="{DC26D0E9-92E7-4F71-AFB7-78A1961618BD}"/>
-    <hyperlink ref="X24" r:id="rId7" xr:uid="{EB15D655-5515-40CA-B087-F41C7EFBFAA8}"/>
-    <hyperlink ref="X25" r:id="rId8" xr:uid="{7326DDD2-9300-4B6F-94BB-CD102C600732}"/>
-    <hyperlink ref="X26" r:id="rId9" xr:uid="{2651F378-F3D8-41B1-B081-3F4255397642}"/>
-    <hyperlink ref="X27" r:id="rId10" xr:uid="{8A9CE612-9E26-4D69-9B0B-6D478E567079}"/>
-    <hyperlink ref="X4" r:id="rId11" xr:uid="{C1B6A6A5-CEA1-48AC-9345-4A272D18C83D}"/>
-    <hyperlink ref="X5" r:id="rId12" xr:uid="{5614D3EC-28E9-4EC6-B345-28D9FDA9DE5F}"/>
-    <hyperlink ref="X6" r:id="rId13" xr:uid="{427F6D17-BDC0-479C-BF6A-A0B88ABE284A}"/>
-    <hyperlink ref="X7" r:id="rId14" xr:uid="{2AB2391F-0A0A-4871-89B6-7EB620CE6785}"/>
-    <hyperlink ref="X8" r:id="rId15" xr:uid="{09DA7CC3-5FC8-4E93-BFE4-316253F89B2B}"/>
-    <hyperlink ref="X31" r:id="rId16" xr:uid="{742556D7-BC2D-47C9-B847-4054854F2672}"/>
-    <hyperlink ref="X32" r:id="rId17" xr:uid="{EEBFB0F3-2ACC-4F2B-8E81-25D27B500FCB}"/>
-    <hyperlink ref="X33" r:id="rId18" xr:uid="{C20BD7EE-9477-4FD9-A4B2-60C22A02F243}"/>
-    <hyperlink ref="X34" r:id="rId19" xr:uid="{C8CC08F1-3912-4C2F-AACF-647E17FBA342}"/>
-    <hyperlink ref="X35" r:id="rId20" xr:uid="{832AA59B-A79D-48C7-B4C3-30B134136F72}"/>
-    <hyperlink ref="X36" r:id="rId21" xr:uid="{B48A6417-F335-46C5-9DB2-C5C6A37C0325}"/>
-    <hyperlink ref="X22" r:id="rId22" xr:uid="{20FCE9A0-A3BC-4527-A749-53CF7495D296}"/>
-    <hyperlink ref="X12" r:id="rId23" xr:uid="{5D0A48F4-B57D-4E0F-88FC-E7919E82BA97}"/>
-    <hyperlink ref="X3" r:id="rId24" xr:uid="{BDB9409D-DE1C-4419-8464-72DF62A82C7B}"/>
-    <hyperlink ref="X41" r:id="rId25" xr:uid="{85F26F86-5E66-4164-AA7A-CD445704B6D4}"/>
-    <hyperlink ref="X42" r:id="rId26" xr:uid="{77C8D472-21A8-4FB8-B1B2-2CDBFC8F69AC}"/>
-    <hyperlink ref="X43" r:id="rId27" xr:uid="{976E09ED-2E15-4E48-96FF-61C7EE0A08EA}"/>
-    <hyperlink ref="X44" r:id="rId28" xr:uid="{C6ECEAF6-632E-415A-9808-32F7BC9A1AA2}"/>
-    <hyperlink ref="X45" r:id="rId29" xr:uid="{94D8EFE2-88BB-478F-A67B-68968561FF43}"/>
-    <hyperlink ref="X40" r:id="rId30" xr:uid="{24BF2EE0-6FA0-492E-9C15-E9C66859A7D2}"/>
-    <hyperlink ref="X50" r:id="rId31" xr:uid="{4FEBC32F-98BA-48D8-95E4-ED377C09F7C1}"/>
-    <hyperlink ref="X51" r:id="rId32" xr:uid="{CF2E2C94-E0C6-4629-B40F-6080D944E032}"/>
-    <hyperlink ref="X52" r:id="rId33" xr:uid="{564BB130-7C05-42C5-A270-C0336F99958A}"/>
-    <hyperlink ref="X53" r:id="rId34" xr:uid="{63BFD41C-EA39-4D26-8F33-436D5F4F29EC}"/>
-    <hyperlink ref="X54" r:id="rId35" xr:uid="{F4EC04F7-D516-4C4C-AE08-A811E38CE867}"/>
-    <hyperlink ref="X49" r:id="rId36" xr:uid="{D8A58D31-D76A-4BFF-8643-F7EAEC69701B}"/>
-    <hyperlink ref="X60" r:id="rId37" xr:uid="{57B6E15D-8EE1-4DD1-8E83-DBF55469D8D6}"/>
-    <hyperlink ref="X61" r:id="rId38" xr:uid="{6644CEF3-30EA-41C4-BFBA-42B2989D61B7}"/>
-    <hyperlink ref="X62" r:id="rId39" xr:uid="{A1B382DA-3F5F-4722-AFA9-A4891E41A0AA}"/>
-    <hyperlink ref="X63" r:id="rId40" xr:uid="{58CBC59E-BC9E-42C1-889F-32F56B91050C}"/>
-    <hyperlink ref="X64" r:id="rId41" xr:uid="{F48E9380-749B-44E0-84FE-DBE287208A75}"/>
-    <hyperlink ref="X59" r:id="rId42" xr:uid="{8F4F9CC5-6EB8-4164-8EA5-8C08FEFC0328}"/>
-    <hyperlink ref="V69" r:id="rId43" xr:uid="{58471F13-0873-4729-B87C-BA053645FC6E}"/>
-    <hyperlink ref="V70" r:id="rId44" xr:uid="{6E5EBFEE-C788-4975-8F15-969632CB271A}"/>
-    <hyperlink ref="V71" r:id="rId45" xr:uid="{771FF8F6-AF38-4F19-9E56-A81C784AF364}"/>
-    <hyperlink ref="V68" r:id="rId46" xr:uid="{D1F07974-7E4C-41C6-89EF-AD44C2D3DA26}"/>
-    <hyperlink ref="V77" r:id="rId47" xr:uid="{B3E1C355-303B-45E3-8343-5493A3E06A54}"/>
-    <hyperlink ref="V78" r:id="rId48" xr:uid="{E7116FF2-5F38-4FA6-B607-7022B35B57CD}"/>
-    <hyperlink ref="V79" r:id="rId49" xr:uid="{3E071975-B70D-4372-88BD-15FB50476206}"/>
-    <hyperlink ref="V76" r:id="rId50" xr:uid="{248E7632-71CD-4A2B-84F1-6845229C7676}"/>
+    <hyperlink ref="Z13" r:id="rId1" xr:uid="{5A7CA082-A19D-4BF9-B2C4-E71FEC3FDB0B}"/>
+    <hyperlink ref="Z14" r:id="rId2" xr:uid="{834D43E6-E787-4436-A4FE-0D44C1460638}"/>
+    <hyperlink ref="Z15" r:id="rId3" xr:uid="{B7D0E31D-451F-4817-B316-45148897402A}"/>
+    <hyperlink ref="Z16" r:id="rId4" xr:uid="{5ADD5EF6-0BBD-4EA6-A245-B7E0B47C45A0}"/>
+    <hyperlink ref="Z17" r:id="rId5" xr:uid="{ADBDC2BB-CC54-4C93-831A-90B8006B30EC}"/>
+    <hyperlink ref="Z23" r:id="rId6" xr:uid="{DC26D0E9-92E7-4F71-AFB7-78A1961618BD}"/>
+    <hyperlink ref="Z24" r:id="rId7" xr:uid="{EB15D655-5515-40CA-B087-F41C7EFBFAA8}"/>
+    <hyperlink ref="Z25" r:id="rId8" xr:uid="{7326DDD2-9300-4B6F-94BB-CD102C600732}"/>
+    <hyperlink ref="Z26" r:id="rId9" xr:uid="{2651F378-F3D8-41B1-B081-3F4255397642}"/>
+    <hyperlink ref="Z27" r:id="rId10" xr:uid="{8A9CE612-9E26-4D69-9B0B-6D478E567079}"/>
+    <hyperlink ref="Z4" r:id="rId11" xr:uid="{C1B6A6A5-CEA1-48AC-9345-4A272D18C83D}"/>
+    <hyperlink ref="Z5" r:id="rId12" xr:uid="{5614D3EC-28E9-4EC6-B345-28D9FDA9DE5F}"/>
+    <hyperlink ref="Z6" r:id="rId13" xr:uid="{427F6D17-BDC0-479C-BF6A-A0B88ABE284A}"/>
+    <hyperlink ref="Z7" r:id="rId14" xr:uid="{2AB2391F-0A0A-4871-89B6-7EB620CE6785}"/>
+    <hyperlink ref="Z8" r:id="rId15" xr:uid="{09DA7CC3-5FC8-4E93-BFE4-316253F89B2B}"/>
+    <hyperlink ref="Z31" r:id="rId16" xr:uid="{742556D7-BC2D-47C9-B847-4054854F2672}"/>
+    <hyperlink ref="Z32" r:id="rId17" xr:uid="{EEBFB0F3-2ACC-4F2B-8E81-25D27B500FCB}"/>
+    <hyperlink ref="Z33" r:id="rId18" xr:uid="{C20BD7EE-9477-4FD9-A4B2-60C22A02F243}"/>
+    <hyperlink ref="Z34" r:id="rId19" xr:uid="{C8CC08F1-3912-4C2F-AACF-647E17FBA342}"/>
+    <hyperlink ref="Z35" r:id="rId20" xr:uid="{832AA59B-A79D-48C7-B4C3-30B134136F72}"/>
+    <hyperlink ref="Z36" r:id="rId21" xr:uid="{B48A6417-F335-46C5-9DB2-C5C6A37C0325}"/>
+    <hyperlink ref="Z22" r:id="rId22" xr:uid="{20FCE9A0-A3BC-4527-A749-53CF7495D296}"/>
+    <hyperlink ref="Z12" r:id="rId23" xr:uid="{5D0A48F4-B57D-4E0F-88FC-E7919E82BA97}"/>
+    <hyperlink ref="Z3" r:id="rId24" xr:uid="{BDB9409D-DE1C-4419-8464-72DF62A82C7B}"/>
+    <hyperlink ref="Z41" r:id="rId25" xr:uid="{85F26F86-5E66-4164-AA7A-CD445704B6D4}"/>
+    <hyperlink ref="Z42" r:id="rId26" xr:uid="{77C8D472-21A8-4FB8-B1B2-2CDBFC8F69AC}"/>
+    <hyperlink ref="Z43" r:id="rId27" xr:uid="{976E09ED-2E15-4E48-96FF-61C7EE0A08EA}"/>
+    <hyperlink ref="Z44" r:id="rId28" xr:uid="{C6ECEAF6-632E-415A-9808-32F7BC9A1AA2}"/>
+    <hyperlink ref="Z45" r:id="rId29" xr:uid="{94D8EFE2-88BB-478F-A67B-68968561FF43}"/>
+    <hyperlink ref="Z40" r:id="rId30" xr:uid="{24BF2EE0-6FA0-492E-9C15-E9C66859A7D2}"/>
+    <hyperlink ref="Z50" r:id="rId31" xr:uid="{4FEBC32F-98BA-48D8-95E4-ED377C09F7C1}"/>
+    <hyperlink ref="Z51" r:id="rId32" xr:uid="{CF2E2C94-E0C6-4629-B40F-6080D944E032}"/>
+    <hyperlink ref="Z52" r:id="rId33" xr:uid="{564BB130-7C05-42C5-A270-C0336F99958A}"/>
+    <hyperlink ref="Z53" r:id="rId34" xr:uid="{63BFD41C-EA39-4D26-8F33-436D5F4F29EC}"/>
+    <hyperlink ref="Z54" r:id="rId35" xr:uid="{F4EC04F7-D516-4C4C-AE08-A811E38CE867}"/>
+    <hyperlink ref="Z49" r:id="rId36" xr:uid="{D8A58D31-D76A-4BFF-8643-F7EAEC69701B}"/>
+    <hyperlink ref="Z60" r:id="rId37" xr:uid="{57B6E15D-8EE1-4DD1-8E83-DBF55469D8D6}"/>
+    <hyperlink ref="Z61" r:id="rId38" xr:uid="{6644CEF3-30EA-41C4-BFBA-42B2989D61B7}"/>
+    <hyperlink ref="Z62" r:id="rId39" xr:uid="{A1B382DA-3F5F-4722-AFA9-A4891E41A0AA}"/>
+    <hyperlink ref="Z63" r:id="rId40" xr:uid="{58CBC59E-BC9E-42C1-889F-32F56B91050C}"/>
+    <hyperlink ref="Z64" r:id="rId41" xr:uid="{F48E9380-749B-44E0-84FE-DBE287208A75}"/>
+    <hyperlink ref="Z59" r:id="rId42" xr:uid="{8F4F9CC5-6EB8-4164-8EA5-8C08FEFC0328}"/>
+    <hyperlink ref="X69" r:id="rId43" xr:uid="{58471F13-0873-4729-B87C-BA053645FC6E}"/>
+    <hyperlink ref="X70" r:id="rId44" xr:uid="{6E5EBFEE-C788-4975-8F15-969632CB271A}"/>
+    <hyperlink ref="X71" r:id="rId45" xr:uid="{771FF8F6-AF38-4F19-9E56-A81C784AF364}"/>
+    <hyperlink ref="X68" r:id="rId46" xr:uid="{D1F07974-7E4C-41C6-89EF-AD44C2D3DA26}"/>
+    <hyperlink ref="X77" r:id="rId47" xr:uid="{B3E1C355-303B-45E3-8343-5493A3E06A54}"/>
+    <hyperlink ref="X78" r:id="rId48" xr:uid="{E7116FF2-5F38-4FA6-B607-7022B35B57CD}"/>
+    <hyperlink ref="X79" r:id="rId49" xr:uid="{3E071975-B70D-4372-88BD-15FB50476206}"/>
+    <hyperlink ref="X76" r:id="rId50" xr:uid="{248E7632-71CD-4A2B-84F1-6845229C7676}"/>
     <hyperlink ref="F87" r:id="rId51" xr:uid="{A4FC0B29-D2AA-41E4-8021-AD208DC1C5BA}"/>
     <hyperlink ref="F88" r:id="rId52" xr:uid="{2A337003-6E39-4010-B653-55A219FBD41B}"/>
     <hyperlink ref="F89" r:id="rId53" xr:uid="{58C9C20E-8F4A-4B7D-8DF1-E0A6DCA850F6}"/>
@@ -9160,17 +9729,18 @@
     <hyperlink ref="F114" r:id="rId61" xr:uid="{CB8F9FAF-B430-4D45-A0B9-DE768D1243CC}"/>
     <hyperlink ref="F115" r:id="rId62" xr:uid="{24E9F5C0-0EAE-48DC-9E5B-9D4DA6865A80}"/>
     <hyperlink ref="F113" r:id="rId63" xr:uid="{22A9C42B-FE06-4427-98BE-E2A33F69CB10}"/>
-    <hyperlink ref="F122" r:id="rId64" xr:uid="{DCD4144A-E7A5-4110-B472-4BDB1556C119}"/>
-    <hyperlink ref="F123" r:id="rId65" xr:uid="{AC7F1FAF-7894-43C7-A871-358AACE6E2E9}"/>
-    <hyperlink ref="F126" r:id="rId66" xr:uid="{282DAC4B-FAFD-4BEF-80ED-AE9400D44530}"/>
-    <hyperlink ref="F127" r:id="rId67" xr:uid="{7AFABFCC-C97B-4861-8B12-EC23A64E2957}"/>
-    <hyperlink ref="F130" r:id="rId68" xr:uid="{D476802F-E5A3-4578-B42A-9B741A180DEE}"/>
-    <hyperlink ref="F131" r:id="rId69" xr:uid="{CE47CE1E-73BE-4B54-A960-6994164F09CC}"/>
-    <hyperlink ref="F134" r:id="rId70" xr:uid="{CA7CB538-C398-4536-9FB1-7CC4EBADCBD2}"/>
-    <hyperlink ref="F135" r:id="rId71" xr:uid="{B916D962-9858-4368-AC71-DC902CF77811}"/>
+    <hyperlink ref="F119" r:id="rId64" xr:uid="{F9B095EA-030C-48FF-B3EC-2DCBB3A10C46}"/>
+    <hyperlink ref="F120" r:id="rId65" xr:uid="{73AB179A-2058-4E4F-B7BB-AE6167470228}"/>
+    <hyperlink ref="F121" r:id="rId66" xr:uid="{DC6881D6-E476-48B5-9E3C-EC16864FA7A7}"/>
+    <hyperlink ref="F118" r:id="rId67" xr:uid="{F0EA9086-6F35-4D7D-9D2E-5B866D4A7272}"/>
+    <hyperlink ref="F122:F123" r:id="rId68" display="\\" xr:uid="{2AA5B0F2-63DC-41E6-ABC4-165D7320292E}"/>
+    <hyperlink ref="F124:F145" r:id="rId69" display="\\" xr:uid="{F85FB6AA-9E68-4CCA-B056-46A67243FC14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12048,6 +12618,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12429,6 +13002,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12808,6 +13384,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14711,6 +15290,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16238,7 +16820,7 @@
         <v>16</v>
       </c>
       <c r="Y40" s="8">
-        <f>AVERAGE(Y14,Latex!E131,Y39)</f>
+        <f>AVERAGE(Y14,Latex!E159,Y39)</f>
         <v>0.89326882637865124</v>
       </c>
     </row>
@@ -16250,6 +16832,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16837,6 +17422,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16844,8 +17432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07BDD7-76C6-4DDC-B9C7-3C484D88A834}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17490,6 +18078,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -17626,6 +18217,15 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>